--- a/graph_generation/results_prelim/gpt3.5/level_7/k_1.xlsx
+++ b/graph_generation/results_prelim/gpt3.5/level_7/k_1.xlsx
@@ -8,13 +8,15 @@
   </bookViews>
   <sheets>
     <sheet name="o_10" sheetId="1" r:id="rId1"/>
+    <sheet name="o_20" sheetId="2" r:id="rId2"/>
+    <sheet name="o_20_jumbled" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="18">
   <si>
     <t>prompt</t>
   </si>
@@ -26,6 +28,9 @@
   </si>
   <si>
     <t>evaluator_response</t>
+  </si>
+  <si>
+    <t>evaluator_partial_correctness</t>
   </si>
   <si>
     <t xml:space="preserve"> Given is the adjacency matrix for a weighted directed graph containing 16 nodes labelled A to P. The value corresponding to each row M and column N represents the cost of travelling between the two nodes, where 0 means no connection.   
@@ -52,38 +57,312 @@
  Given these examples, answer the following quesiton.
 what is the least cost path from node A to node P?
    A B C D E F G H I J K L M N O P
- A 0 5 0 0 5 0 0 0 0 0 0 0 0 0 0 0
- B 0 0 3 0 0 0 0 0 0 0 0 0 0 0 0 0
+ A 0 2 0 0 2 0 0 0 0 0 0 0 0 0 0 0
+ B 0 0 5 0 0 5 0 0 0 0 0 0 0 0 0 0
  C 0 0 0 5 0 0 0 0 0 0 0 0 0 0 0 0
- D 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0
- E 0 0 0 0 0 2 0 0 1 0 0 0 0 0 0 0
- F 0 3 0 0 0 0 3 0 0 0 0 0 0 0 0 0
- G 0 0 0 0 0 0 0 0 0 0 4 0 0 0 0 0
- H 0 0 0 0 0 0 5 0 0 0 0 0 0 0 0 0
- I 0 0 0 0 0 0 0 0 0 0 0 0 5 0 0 0
- J 0 0 0 0 0 3 0 0 0 0 0 0 0 2 0 0
- K 0 0 0 0 0 0 0 0 0 3 0 0 0 0 5 0
- L 0 0 0 0 0 0 0 1 0 0 1 0 0 0 0 0
- M 0 0 0 0 0 0 0 0 0 0 0 0 0 2 0 0
- N 0 0 0 0 0 0 0 0 0 3 0 0 0 0 4 0
- O 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 2
- P 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0
+ D 0 0 0 0 0 0 0 5 0 0 0 0 0 0 0 0
+ E 0 0 0 0 0 0 0 0 4 0 0 0 0 0 0 0
+ F 0 2 0 0 4 0 0 0 0 3 0 0 0 0 0 0
+ G 0 0 0 0 0 4 0 3 0 0 0 0 0 0 0 0
+ H 0 0 0 0 0 0 0 0 0 0 0 2 0 0 0 0
+ I 0 0 0 0 0 0 0 0 0 3 0 0 1 0 0 0
+ J 0 0 0 0 0 0 0 0 0 0 4 0 0 5 0 0
+ K 0 0 0 0 0 0 2 0 0 0 0 3 0 0 0 0
+ L 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 5
+ M 0 0 0 0 0 0 0 0 0 0 0 0 0 4 0 0
+ N 0 0 0 0 0 0 0 0 0 5 0 0 0 0 5 0
+ O 0 0 0 0 0 0 0 0 0 0 2 0 0 0 0 0
+ P 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0
     </t>
   </si>
   <si>
-    <t>A -&gt; E -&gt; I -&gt; M -&gt; N -&gt; O -&gt; P</t>
-  </si>
-  <si>
-    <t>The least cost path from node A to node P is: A -&gt; E -&gt; J -&gt; N -&gt; P
-Explanation:
-- The cost from A to E is 5
-- The cost from E to J is 2
-- The cost from J to N is 3
-- The cost from N to P is 4
-Therefore, the total cost of the path is 5 + 2 + 3 + 4 = 14.</t>
+    <t>A -&gt; E -&gt; I -&gt; J -&gt; K -&gt; L -&gt; P</t>
+  </si>
+  <si>
+    <t>The least cost path from node A to node P is:
+A -&gt; B -&gt; C -&gt; D -&gt; H -&gt; L -&gt; P</t>
   </si>
   <si>
     <t>Wrong</t>
+  </si>
+  <si>
+    <t>Partial correctness: 1/7</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Given is the adjacency matrix for a weighted directed graph containing 23 nodes labelled A to W. The value corresponding to each row M and column N represents the cost of travelling between the two nodes, where 0 means no connection.   
+Consider some examples
+Example 1: what is the least cost path from node A to node Y?
+   A B C D E F G H I J K L M N O P Q R S T U V W X Y
+ A 0 1 0 0 0 3 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ B 0 0 5 0 0 0 3 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ C 0 0 0 2 0 0 0 2 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ D 0 0 0 0 5 0 0 0 3 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ E 0 0 0 0 0 0 0 0 0 5 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ F 0 0 0 0 0 0 0 0 0 0 5 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ G 0 1 0 0 0 3 0 4 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ H 0 0 0 0 0 0 4 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ I 0 0 0 2 0 0 0 0 0 3 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ J 0 0 0 0 0 0 0 0 0 0 0 0 0 0 4 0 0 0 0 0 0 0 0 0 0
+ K 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 3 0 0 0 0 0 0 0 0 0
+ L 0 0 0 0 0 0 0 0 0 0 2 0 0 0 0 0 5 0 0 0 0 0 0 0 0
+ M 0 0 0 0 0 0 0 3 0 0 0 4 0 0 0 0 0 1 0 0 0 0 0 0 0
+ N 0 0 0 0 0 0 0 0 5 0 0 0 4 0 0 0 0 0 0 0 0 0 0 0 0
+ O 0 0 0 0 0 0 0 0 0 0 0 0 0 4 0 0 0 0 0 2 0 0 0 0 0
+ P 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 3 0 0 0 3 0 0 0 0
+ Q 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 2 0 2 0 0 0 0 0 0 0
+ R 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 2 0 0 0 2 0 0
+ S 0 0 0 0 0 0 0 0 0 0 0 0 0 5 0 0 0 0 0 5 0 0 0 0 0
+ T 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 3
+ U 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 3 0 0 0
+ V 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 2 0 0
+ W 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 3 0 0 0 0 0 1 0
+ X 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 2 0 0 0 0 0 0
+ Y 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 4 0
+Solution: A -&gt; B -&gt; G -&gt; H -&gt; I -&gt; J -&gt; O -&gt; T -&gt; Y
+ Given these examples, answer the following quesiton.
+what is the least cost path from node A to node W?
+   A B C D E F G H I J K L M N O P Q R S T U V W
+ A 0 5 0 0 0 3 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ B 0 0 2 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ C 0 0 0 1 0 0 0 5 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ D 0 0 0 0 2 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ E 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0
+ F 0 0 0 0 0 0 1 0 0 0 4 0 0 0 0 0 0 0 0 0 0 0 0
+ G 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0
+ H 0 0 5 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ I 0 0 0 4 0 0 0 0 0 0 0 0 0 4 0 0 0 0 0 0 0 0 0
+ J 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0
+ K 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0
+ L 0 0 0 0 0 0 0 0 0 0 0 0 2 0 0 3 0 0 0 0 0 0 0
+ M 0 0 0 0 0 0 0 5 0 0 0 0 0 5 0 0 0 0 0 0 0 0 0
+ N 0 0 0 0 0 0 0 0 3 0 0 0 0 0 5 0 0 0 0 0 0 0 0
+ O 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 3 0 0 0 0
+ P 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 4 0 0 4 0 0 0
+ Q 0 0 0 0 0 0 0 0 0 0 0 0 5 0 0 0 0 0 0 0 0 0 0
+ R 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 3 0 0 0 0 3 0
+ S 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 5
+ T 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ U 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 4 0 0 0
+ V 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 5 0 4
+ W 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+    </t>
+  </si>
+  <si>
+    <t>A -&gt; B -&gt; C -&gt; D -&gt; E -&gt; J -&gt; O -&gt; S -&gt; W</t>
+  </si>
+  <si>
+    <t>To find the least cost path from node A to node W, we can use Dijkstra's algorithm. 
+1. Start by initializing the cost of reaching each node from A as infinity, except for A itself, which has a cost of 0. Keep track of the previous node for each node to reconstruct the path later.
+   - A: 0     (previous node: none)
+   - B: ∞     (previous node: unknown)
+   - C: ∞     (previous node: unknown)
+   - D: ∞     (previous node: unknown)
+   - E: ∞     (previous node: unknown)
+   - F: ∞     (previous node: unknown)
+   - G: ∞     (previous node: unknown)
+   - H: ∞     (previous node: unknown)
+   - I: ∞     (previous node: unknown)
+   - J: ∞     (previous node: unknown)
+   - K: ∞     (previous node: unknown)
+   - L: ∞     (previous node: unknown)
+   - M: ∞     (previous node: unknown)
+   - N: ∞     (previous node: unknown)
+   - O: ∞     (previous node: unknown)
+   - P: ∞     (previous node: unknown)
+   - Q: ∞     (previous node: unknown)
+   - R: ∞     (previous node: unknown)
+   - S: ∞     (previous node: unknown)
+   - T: ∞     (previous node: unknown)
+   - U: ∞     (previous node: unknown)
+   - V: ∞     (previous node: unknown)
+   - W: ∞     (previous node: unknown)
+2. For each node, update the cost if a shorter path is found through another node. Start with node A and examine its neighbors.
+   - Neighbor B has a cost of 1. Update the cost of reaching B from A and set its previous node as A.
+   - Neighbor F has a cost of 3. Update the cost of reaching F from A and set its previous node as A.
+   - Neighbor G has a cost of 0. Update the cost of reaching G from A and set its previous node as A.
+   The updated costs and previous nodes are:
+   - A: 0     (previous node: none)
+   - B: 1     (previous node: A)
+   - C: ∞     (previous node: unknown)
+   - D: ∞     (previous node: unknown)
+   - E: ∞     (previous node: unknown)
+   - F: 3     (previous node: A)
+   - G: 0     (previous node: A)
+   - H: ∞     (previous node: unknown)
+   - I: ∞     (previous node: unknown)
+   - J: ∞     (previous node: unknown)
+   - K: ∞     (previous node: unknown)
+   - L: ∞     (previous node: unknown)
+   - M: ∞     (previous node: unknown)
+   - N: ∞     (previous node: unknown)
+   - O: ∞     (previous node: unknown)
+   - P: ∞     (previous node: unknown)
+   - Q: ∞     (previous node: unknown)
+   - R: ∞     (previous node: unknown)
+   - S: ∞     (previous node: unknown)
+   - T: ∞     (previous node: unknown)
+   - U: ∞     (previous node: unknown)
+   - V: ∞     (previous node: unknown)
+   - W: ∞     (previous node: unknown)
+3. Repeat step 2 until all nodes have been examined or the target node has been reached. In each iteration, select the node with the smallest cost and examine its neighbors.
+   - The next node with the smallest cost is G. Examine its neighbors.
+     - Neighbor B already has a cost, so no update is needed.
+     - Neighbor F already has a cost, so no update is needed.
+     - Neighbor H has a cost of 4. Update the cost of reaching H from G and set its previous node as G.
+   The updated costs and previous nodes are:
+   - A: 0     (previous node: none)
+   - B: 1     (previous node: A)
+   - C: ∞     (previous node: unknown)
+   - D: ∞     (previous node: unknown)
+   - E: ∞     (previous node: unknown)
+   - F: 3     (previous node: A)
+   - G: 0     (previous node: A)
+   - H: 4     (previous node: G)
+   - I: ∞     (previous node: unknown)
+   - J: ∞     (previous node: unknown)
+   - K: ∞     (previous node: unknown)
+   - L: ∞     (previous node: unknown)
+   - M: ∞     (previous node: unknown)
+   - N: ∞     (previous node: unknown)
+   - O: ∞     (previous node: unknown)
+   - P: ∞     (previous node: unknown)
+   - Q: ∞     (previous node: unknown)
+   - R: ∞     (previous node: unknown)
+   - S: ∞     (previous node: unknown)
+   - T: ∞     (previous node: unknown)
+   - U: ∞     (previous node: unknown)
+   - V: ∞     (previous node: unknown)
+   - W: ∞     (previous node: unknown)
+4. Repeat step 3 until all nodes have been examined or the target node has been reached. In each iteration, select the node with the smallest cost and examine its neighbors. 
+   - The next node with the smallest cost is B. Examine its neighbors.
+     - Neighbor C has a cost of 5. Update the cost of reaching C from B and set its previous node as B.
+   The updated costs and previous nodes are:
+   - A: 0     (previous node: none)
+   - B: 1     (previous node: A)
+   - C: 6     (previous node: B)
+   - D: ∞     (previous node: unknown)
+   - E: ∞     (previous node: unknown)
+   - F: 3     (previous node: A)
+   - G: 0     (previous node: A)
+   - H: 4     (previous node: G)
+   - I: ∞     (previous node: unknown)
+   - J: ∞     (previous node: unknown)
+   - K: ∞     (previous node: unknown)
+   - L: ∞     (previous node: unknown)
+   - M: ∞     (previous node: unknown)
+   - N: ∞     (previous node: unknown)
+   - O: ∞     (previous node: unknown)
+   - P: ∞     (previous node: unknown)
+   - Q: ∞     (previous node: unknown)
+   - R: ∞     (previous node</t>
+  </si>
+  <si>
+    <t>6/9</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Given is the adjacency matrix for a weighted directed graph containing 25 nodes labelled A to Y. The value corresponding to each row M and column N represents the cost of travelling between the two nodes, where 0 means no connection.   
+Consider some examples
+Example 1: what is the least cost path from node A to node Y?
+   A B C D E F G H I J K L M N O P Q R S T U V W X Y
+ A 0 1 0 0 0 3 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ B 0 0 5 0 0 0 3 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ C 0 0 0 2 0 0 0 2 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ D 0 0 0 0 5 0 0 0 3 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ E 0 0 0 0 0 0 0 0 0 5 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ F 0 0 0 0 0 0 0 0 0 0 5 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ G 0 1 0 0 0 3 0 4 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ H 0 0 0 0 0 0 4 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ I 0 0 0 2 0 0 0 0 0 3 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ J 0 0 0 0 0 0 0 0 0 0 0 0 0 0 4 0 0 0 0 0 0 0 0 0 0
+ K 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 3 0 0 0 0 0 0 0 0 0
+ L 0 0 0 0 0 0 0 0 0 0 2 0 0 0 0 0 5 0 0 0 0 0 0 0 0
+ M 0 0 0 0 0 0 0 3 0 0 0 4 0 0 0 0 0 1 0 0 0 0 0 0 0
+ N 0 0 0 0 0 0 0 0 5 0 0 0 4 0 0 0 0 0 0 0 0 0 0 0 0
+ O 0 0 0 0 0 0 0 0 0 0 0 0 0 4 0 0 0 0 0 2 0 0 0 0 0
+ P 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 3 0 0 0 3 0 0 0 0
+ Q 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 2 0 2 0 0 0 0 0 0 0
+ R 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 2 0 0 0 2 0 0
+ S 0 0 0 0 0 0 0 0 0 0 0 0 0 5 0 0 0 0 0 5 0 0 0 0 0
+ T 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 3
+ U 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 3 0 0 0
+ V 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 2 0 0
+ W 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 3 0 0 0 0 0 1 0
+ X 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 2 0 0 0 0 0 0
+ Y 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 4 0
+Solution: A -&gt; B -&gt; G -&gt; H -&gt; I -&gt; J -&gt; O -&gt; T -&gt; Y
+ Given these examples, answer the following quesiton.
+what is the least cost path from node A to node Y?
+   A B C D E F G H I J K L M N O P Q R S T U V W X Y
+ A 0 5 0 0 0 2 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ B 0 0 3 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ C 0 0 0 4 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ D 0 0 0 0 2 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ E 0 0 0 0 0 0 0 0 0 5 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ F 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ G 0 1 0 0 0 0 0 0 0 0 0 5 0 0 0 0 0 0 0 0 0 0 0 0 0
+ H 0 0 0 0 0 0 2 0 0 0 0 0 2 0 0 0 0 0 0 0 0 0 0 0 0
+ I 0 0 0 0 0 0 0 3 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ J 0 0 0 0 0 0 0 0 1 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0
+ K 0 0 0 0 0 3 0 0 0 0 0 0 0 0 0 4 0 0 0 0 0 0 0 0 0
+ L 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 5 0 0 0 0 0 0 0 0
+ M 0 0 0 0 0 0 0 0 0 0 0 4 0 0 0 0 0 0 0 0 0 0 0 0 0
+ N 0 0 0 0 0 0 0 0 0 0 0 0 0 0 3 0 0 0 0 0 0 0 0 0 0
+ O 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 4 0 0 0 0 0
+ P 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 3 0 0 0 1 0 0 0 0
+ Q 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 5 0 0 0 5 0 0 0
+ R 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 4 0 0 0 2 0 0
+ S 0 0 0 0 0 0 0 0 0 0 0 0 0 2 0 0 0 0 0 0 0 0 0 0 0
+ T 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 2
+ U 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 5 0 0 0
+ V 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0
+ W 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 3 0 0 0 0 0 4 0
+ X 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 5 0 0 0 0 0 4
+ Y 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+    </t>
+  </si>
+  <si>
+    <t>A -&gt; F -&gt; G -&gt; B -&gt; C -&gt; D -&gt; E -&gt; J -&gt; O -&gt; T -&gt; Y</t>
+  </si>
+  <si>
+    <t>Based on the given adjacency matrix, we can determine the least cost path from node A to node Y by applying Dijkstra's algorithm.
+Starting at node A, we initialize a set of unvisited nodes and set the distance from A to itself as 0. We then assign a tentative distance of infinity to all other nodes.
+We iterate through the unvisited nodes, selecting the node with the smallest tentative distance. In each iteration, we update the tentative distance for all unvisited neighbors of the selected node.
+Here is the step-by-step illustration of the algorithm to find the least cost path from node A to node Y:
+Step 1: Initialize the distance vector and set of unvisited nodes.
+- Distance: [0, ∞, ∞, ∞, ∞, ∞, ∞, ∞, ∞, ∞, ∞, ∞, ∞, ∞, ∞, ∞, ∞, ∞, ∞, ∞, ∞, ∞, ∞, ∞, ∞]
+- Unvisited nodes: [A, B, C, D, E, F, G, H, I, J, K, L, M, N, O, P, Q, R, S, T, U, V, W, X, Y]
+Step 2: Select the node with the smallest tentative distance (A).
+- Node A: Distance = 0, Set current node A as the visited.
+Step 3: Update the tentative distances for the unvisited neighbors of the current node (A).
+- Node B: Tentative distance = min(0 + 1, ∞) = 1
+- Node G: Tentative distance = min(0 + 2, ∞) = 2
+Step 4: Repeatedly select the node with the smallest tentative distance from the unvisited nodes.
+- Node B: Distance = 1, Set current node B as visited.
+- Update tentative distances for unvisited neighbors of B.
+  - Node C: Tentative distance = min(1 + 5, ∞) = 5
+Step 5: Continue the process until reaching the destination node Y.
+- Node C: Distance = 5, Set current node C as visited.
+- Update tentative distances for unvisited neighbors of C.
+  - Node D: Tentative distance = min(5 + 4, ∞) = 9
+  - Node H: Tentative distance = min(5 + 1, ∞) = 6
+- Node H: Distance = 6, Set current node H as visited.
+- Update tentative distances for unvisited neighbors of H.
+  - Node I: Tentative distance = min(6 + 3, ∞) = 9
+  - Node O: Tentative distance = min(6 + 2, ∞) = 8
+- Node O: Distance = 8, Set current node O as visited.
+- Update tentative distances for unvisited neighbors of O.
+  - Node T: Tentative distance = min(8 + 1, ∞) = 9
+- Node T: Distance = 9, Set current node T as visited.
+- Update tentative distances for unvisited neighbors of T.
+  - Node Y: Tentative distance = min(9 + 3, ∞) = 12
+Step 6: Reconstruct the least cost path from A to Y.
+- Start at the destination node Y.
+- Move to the previous node with the smallest tentative distance until reaching the source node A.
+  - Y -&gt; T -&gt; O -&gt; H -&gt; G -&gt; B -&gt; A
+Therefore, the least cost path from node A to node Y is A -&gt; B -&gt; G -&gt; H -&gt; O -&gt; T -&gt; Y, with a total cost of 12.</t>
+  </si>
+  <si>
+    <t>Output: 3/26</t>
   </si>
 </sst>
 </file>
@@ -441,13 +720,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -460,19 +739,119 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>10</v>
+      </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="C2" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="D2" t="s">
-        <v>7</v>
+        <v>8</v>
+      </c>
+      <c r="E2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/graph_generation/results_prelim/gpt3.5/level_7/k_1.xlsx
+++ b/graph_generation/results_prelim/gpt3.5/level_7/k_1.xlsx
@@ -33,9 +33,9 @@
     <t>evaluator_partial_correctness</t>
   </si>
   <si>
-    <t xml:space="preserve"> Given is the adjacency matrix for a weighted directed graph containing 16 nodes labelled A to P. The value corresponding to each row M and column N represents the cost of travelling between the two nodes, where 0 means no connection.   
+    <t xml:space="preserve"> Given is the adjacency matrix for a weighted directed graph containing 15 nodes labelled A to O. The value corresponding to each row M and column N represents the cost of travelling between the two nodes, where 0 means no connection.   
 Consider some examples
-Example 1: what is the least cost path from node A to node P?
+Example 1: what is the least cost path from node A to node P? Return the sequence of nodes in response.
    A B C D E F G H I J K L M N O P
  A 0 2 0 0 3 0 0 0 0 0 0 0 0 0 0 0
  B 0 0 3 0 0 0 0 0 0 0 0 0 0 0 0 0
@@ -55,43 +55,42 @@
  P 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
 Solution: A -&gt; B -&gt; C -&gt; D -&gt; H -&gt; L -&gt; P
  Given these examples, answer the following quesiton.
-what is the least cost path from node A to node P?
-   A B C D E F G H I J K L M N O P
- A 0 2 0 0 2 0 0 0 0 0 0 0 0 0 0 0
- B 0 0 5 0 0 5 0 0 0 0 0 0 0 0 0 0
- C 0 0 0 5 0 0 0 0 0 0 0 0 0 0 0 0
- D 0 0 0 0 0 0 0 5 0 0 0 0 0 0 0 0
- E 0 0 0 0 0 0 0 0 4 0 0 0 0 0 0 0
- F 0 2 0 0 4 0 0 0 0 3 0 0 0 0 0 0
- G 0 0 0 0 0 4 0 3 0 0 0 0 0 0 0 0
- H 0 0 0 0 0 0 0 0 0 0 0 2 0 0 0 0
- I 0 0 0 0 0 0 0 0 0 3 0 0 1 0 0 0
- J 0 0 0 0 0 0 0 0 0 0 4 0 0 5 0 0
- K 0 0 0 0 0 0 2 0 0 0 0 3 0 0 0 0
- L 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 5
- M 0 0 0 0 0 0 0 0 0 0 0 0 0 4 0 0
- N 0 0 0 0 0 0 0 0 0 5 0 0 0 0 5 0
- O 0 0 0 0 0 0 0 0 0 0 2 0 0 0 0 0
- P 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0
+what is the least cost path from node A to node O? Return the sequence of nodes in response.
+   A B C D E F G H I J K L M N O
+ A 0 0 0 4 0 0 0 0 0 0 0 0 0 0 0
+ B 2 0 2 0 0 0 0 0 0 0 0 0 0 0 0
+ C 0 0 0 0 0 5 0 0 0 0 0 0 0 0 0
+ D 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0
+ E 0 5 0 0 0 0 0 0 0 0 0 0 0 0 0
+ F 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0
+ G 0 0 0 0 0 0 0 0 0 0 5 0 0 0 0
+ H 0 0 0 0 0 0 0 0 0 0 0 5 0 0 0
+ I 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0
+ J 0 0 0 0 0 3 0 0 0 0 0 0 0 1 0
+ K 0 0 0 0 0 0 0 0 0 3 0 0 0 0 1
+ L 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0
+ M 0 0 0 0 0 0 0 0 1 0 0 0 0 3 0
+ N 0 0 0 0 0 0 0 0 0 0 0 0 0 0 4
+ O 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
     </t>
   </si>
   <si>
-    <t>A -&gt; E -&gt; I -&gt; J -&gt; K -&gt; L -&gt; P</t>
-  </si>
-  <si>
-    <t>The least cost path from node A to node P is:
-A -&gt; B -&gt; C -&gt; D -&gt; H -&gt; L -&gt; P</t>
+    <t>A -&gt; D -&gt; H -&gt; L -&gt; M -&gt; N -&gt; O</t>
+  </si>
+  <si>
+    <t>The least cost path from node A to node O is: 
+A -&gt; D -&gt; H -&gt; I -&gt; K -&gt; O</t>
   </si>
   <si>
     <t>Wrong</t>
   </si>
   <si>
-    <t>Partial correctness: 1/7</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Given is the adjacency matrix for a weighted directed graph containing 23 nodes labelled A to W. The value corresponding to each row M and column N represents the cost of travelling between the two nodes, where 0 means no connection.   
+    <t>3/7</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Given is the adjacency matrix for a weighted directed graph containing 25 nodes labelled A to Y. The value corresponding to each row M and column N represents the cost of travelling between the two nodes, where 0 means no connection.   
 Consider some examples
-Example 1: what is the least cost path from node A to node Y?
+Example 1: what is the least cost path from node A to node Y? Return the sequence of nodes in response.
    A B C D E F G H I J K L M N O P Q R S T U V W X Y
  A 0 1 0 0 0 3 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
  B 0 0 5 0 0 0 3 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
@@ -120,149 +119,49 @@
  Y 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 4 0
 Solution: A -&gt; B -&gt; G -&gt; H -&gt; I -&gt; J -&gt; O -&gt; T -&gt; Y
  Given these examples, answer the following quesiton.
-what is the least cost path from node A to node W?
-   A B C D E F G H I J K L M N O P Q R S T U V W
- A 0 5 0 0 0 3 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- B 0 0 2 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- C 0 0 0 1 0 0 0 5 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- D 0 0 0 0 2 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- E 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0
- F 0 0 0 0 0 0 1 0 0 0 4 0 0 0 0 0 0 0 0 0 0 0 0
- G 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0
- H 0 0 5 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- I 0 0 0 4 0 0 0 0 0 0 0 0 0 4 0 0 0 0 0 0 0 0 0
- J 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0
- K 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0
- L 0 0 0 0 0 0 0 0 0 0 0 0 2 0 0 3 0 0 0 0 0 0 0
- M 0 0 0 0 0 0 0 5 0 0 0 0 0 5 0 0 0 0 0 0 0 0 0
- N 0 0 0 0 0 0 0 0 3 0 0 0 0 0 5 0 0 0 0 0 0 0 0
- O 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 3 0 0 0 0
- P 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 4 0 0 4 0 0 0
- Q 0 0 0 0 0 0 0 0 0 0 0 0 5 0 0 0 0 0 0 0 0 0 0
- R 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 3 0 0 0 0 3 0
- S 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 5
- T 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- U 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 4 0 0 0
- V 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 5 0 4
- W 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+what is the least cost path from node A to node Y? Return the sequence of nodes in response.
+   A B C D E F G H I J K L M N O P Q R S T U V W X Y
+ A 0 2 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ B 0 0 4 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ C 0 0 0 4 0 0 0 4 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ D 0 0 0 0 0 0 0 0 2 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ E 0 0 0 1 0 0 0 0 0 2 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ F 0 0 0 0 0 0 0 0 0 0 4 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ G 0 3 0 0 0 5 0 0 0 0 0 4 0 0 0 0 0 0 0 0 0 0 0 0 0
+ H 0 0 0 0 0 0 4 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ I 0 0 0 0 0 0 0 5 0 3 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ J 0 0 0 0 0 0 0 0 0 0 0 0 0 0 5 0 0 0 0 0 0 0 0 0 0
+ K 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 3 0 0 0 0 0 0 0 0 0
+ L 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0
+ M 0 0 0 0 0 0 0 4 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0
+ N 0 0 0 0 0 0 0 0 0 0 0 0 0 0 2 0 0 0 0 0 0 0 0 0 0
+ O 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 5 0 0 0 0 0
+ P 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 2 0 0 0 0
+ Q 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 5 0 2 0 0 0 0 0 0 0
+ R 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 3 0 5 0 0 0 0 0 0
+ S 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 5 0 0 0 0 0 5 0
+ T 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 5 0 0 0 0 0 5
+ U 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0
+ V 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 1 0 0
+ W 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 5 0
+ X 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1
+ Y 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
     </t>
   </si>
   <si>
-    <t>A -&gt; B -&gt; C -&gt; D -&gt; E -&gt; J -&gt; O -&gt; S -&gt; W</t>
-  </si>
-  <si>
-    <t>To find the least cost path from node A to node W, we can use Dijkstra's algorithm. 
-1. Start by initializing the cost of reaching each node from A as infinity, except for A itself, which has a cost of 0. Keep track of the previous node for each node to reconstruct the path later.
-   - A: 0     (previous node: none)
-   - B: ∞     (previous node: unknown)
-   - C: ∞     (previous node: unknown)
-   - D: ∞     (previous node: unknown)
-   - E: ∞     (previous node: unknown)
-   - F: ∞     (previous node: unknown)
-   - G: ∞     (previous node: unknown)
-   - H: ∞     (previous node: unknown)
-   - I: ∞     (previous node: unknown)
-   - J: ∞     (previous node: unknown)
-   - K: ∞     (previous node: unknown)
-   - L: ∞     (previous node: unknown)
-   - M: ∞     (previous node: unknown)
-   - N: ∞     (previous node: unknown)
-   - O: ∞     (previous node: unknown)
-   - P: ∞     (previous node: unknown)
-   - Q: ∞     (previous node: unknown)
-   - R: ∞     (previous node: unknown)
-   - S: ∞     (previous node: unknown)
-   - T: ∞     (previous node: unknown)
-   - U: ∞     (previous node: unknown)
-   - V: ∞     (previous node: unknown)
-   - W: ∞     (previous node: unknown)
-2. For each node, update the cost if a shorter path is found through another node. Start with node A and examine its neighbors.
-   - Neighbor B has a cost of 1. Update the cost of reaching B from A and set its previous node as A.
-   - Neighbor F has a cost of 3. Update the cost of reaching F from A and set its previous node as A.
-   - Neighbor G has a cost of 0. Update the cost of reaching G from A and set its previous node as A.
-   The updated costs and previous nodes are:
-   - A: 0     (previous node: none)
-   - B: 1     (previous node: A)
-   - C: ∞     (previous node: unknown)
-   - D: ∞     (previous node: unknown)
-   - E: ∞     (previous node: unknown)
-   - F: 3     (previous node: A)
-   - G: 0     (previous node: A)
-   - H: ∞     (previous node: unknown)
-   - I: ∞     (previous node: unknown)
-   - J: ∞     (previous node: unknown)
-   - K: ∞     (previous node: unknown)
-   - L: ∞     (previous node: unknown)
-   - M: ∞     (previous node: unknown)
-   - N: ∞     (previous node: unknown)
-   - O: ∞     (previous node: unknown)
-   - P: ∞     (previous node: unknown)
-   - Q: ∞     (previous node: unknown)
-   - R: ∞     (previous node: unknown)
-   - S: ∞     (previous node: unknown)
-   - T: ∞     (previous node: unknown)
-   - U: ∞     (previous node: unknown)
-   - V: ∞     (previous node: unknown)
-   - W: ∞     (previous node: unknown)
-3. Repeat step 2 until all nodes have been examined or the target node has been reached. In each iteration, select the node with the smallest cost and examine its neighbors.
-   - The next node with the smallest cost is G. Examine its neighbors.
-     - Neighbor B already has a cost, so no update is needed.
-     - Neighbor F already has a cost, so no update is needed.
-     - Neighbor H has a cost of 4. Update the cost of reaching H from G and set its previous node as G.
-   The updated costs and previous nodes are:
-   - A: 0     (previous node: none)
-   - B: 1     (previous node: A)
-   - C: ∞     (previous node: unknown)
-   - D: ∞     (previous node: unknown)
-   - E: ∞     (previous node: unknown)
-   - F: 3     (previous node: A)
-   - G: 0     (previous node: A)
-   - H: 4     (previous node: G)
-   - I: ∞     (previous node: unknown)
-   - J: ∞     (previous node: unknown)
-   - K: ∞     (previous node: unknown)
-   - L: ∞     (previous node: unknown)
-   - M: ∞     (previous node: unknown)
-   - N: ∞     (previous node: unknown)
-   - O: ∞     (previous node: unknown)
-   - P: ∞     (previous node: unknown)
-   - Q: ∞     (previous node: unknown)
-   - R: ∞     (previous node: unknown)
-   - S: ∞     (previous node: unknown)
-   - T: ∞     (previous node: unknown)
-   - U: ∞     (previous node: unknown)
-   - V: ∞     (previous node: unknown)
-   - W: ∞     (previous node: unknown)
-4. Repeat step 3 until all nodes have been examined or the target node has been reached. In each iteration, select the node with the smallest cost and examine its neighbors. 
-   - The next node with the smallest cost is B. Examine its neighbors.
-     - Neighbor C has a cost of 5. Update the cost of reaching C from B and set its previous node as B.
-   The updated costs and previous nodes are:
-   - A: 0     (previous node: none)
-   - B: 1     (previous node: A)
-   - C: 6     (previous node: B)
-   - D: ∞     (previous node: unknown)
-   - E: ∞     (previous node: unknown)
-   - F: 3     (previous node: A)
-   - G: 0     (previous node: A)
-   - H: 4     (previous node: G)
-   - I: ∞     (previous node: unknown)
-   - J: ∞     (previous node: unknown)
-   - K: ∞     (previous node: unknown)
-   - L: ∞     (previous node: unknown)
-   - M: ∞     (previous node: unknown)
-   - N: ∞     (previous node: unknown)
-   - O: ∞     (previous node: unknown)
-   - P: ∞     (previous node: unknown)
-   - Q: ∞     (previous node: unknown)
-   - R: ∞     (previous node</t>
-  </si>
-  <si>
-    <t>6/9</t>
+    <t>A -&gt; B -&gt; C -&gt; D -&gt; I -&gt; J -&gt; O -&gt; T -&gt; Y</t>
+  </si>
+  <si>
+    <t>Based on the adjacency matrix, the least cost path from node A to node Y is:
+A -&gt; B -&gt; G -&gt; H -&gt; I -&gt; J -&gt; O -&gt; T -&gt; Y</t>
+  </si>
+  <si>
+    <t>2/9</t>
   </si>
   <si>
     <t xml:space="preserve"> Given is the adjacency matrix for a weighted directed graph containing 25 nodes labelled A to Y. The value corresponding to each row M and column N represents the cost of travelling between the two nodes, where 0 means no connection.   
 Consider some examples
-Example 1: what is the least cost path from node A to node Y?
+Example 1: what is the least cost path from node A to node Y? Return the sequence of nodes in response.
    A B C D E F G H I J K L M N O P Q R S T U V W X Y
  A 0 1 0 0 0 3 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
  B 0 0 5 0 0 0 3 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
@@ -291,78 +190,43 @@
  Y 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 4 0
 Solution: A -&gt; B -&gt; G -&gt; H -&gt; I -&gt; J -&gt; O -&gt; T -&gt; Y
  Given these examples, answer the following quesiton.
-what is the least cost path from node A to node Y?
+what is the least cost path from node A to node Y? Return the sequence of nodes in response.
    A B C D E F G H I J K L M N O P Q R S T U V W X Y
- A 0 5 0 0 0 2 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- B 0 0 3 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- C 0 0 0 4 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- D 0 0 0 0 2 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- E 0 0 0 0 0 0 0 0 0 5 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- F 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- G 0 1 0 0 0 0 0 0 0 0 0 5 0 0 0 0 0 0 0 0 0 0 0 0 0
- H 0 0 0 0 0 0 2 0 0 0 0 0 2 0 0 0 0 0 0 0 0 0 0 0 0
- I 0 0 0 0 0 0 0 3 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- J 0 0 0 0 0 0 0 0 1 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0
- K 0 0 0 0 0 3 0 0 0 0 0 0 0 0 0 4 0 0 0 0 0 0 0 0 0
- L 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 5 0 0 0 0 0 0 0 0
- M 0 0 0 0 0 0 0 0 0 0 0 4 0 0 0 0 0 0 0 0 0 0 0 0 0
- N 0 0 0 0 0 0 0 0 0 0 0 0 0 0 3 0 0 0 0 0 0 0 0 0 0
- O 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 4 0 0 0 0 0
- P 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 3 0 0 0 1 0 0 0 0
- Q 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 5 0 0 0 5 0 0 0
- R 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 4 0 0 0 2 0 0
- S 0 0 0 0 0 0 0 0 0 0 0 0 0 2 0 0 0 0 0 0 0 0 0 0 0
- T 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 2
- U 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 5 0 0 0
- V 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0
- W 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 3 0 0 0 0 0 4 0
- X 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 5 0 0 0 0 0 4
+ A 0 4 0 0 0 5 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ B 0 0 4 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ C 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ D 0 0 0 0 2 0 0 0 2 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ E 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ F 0 0 0 0 0 0 5 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ G 0 2 0 0 0 0 0 0 0 0 0 3 0 0 0 0 0 0 0 0 0 0 0 0 0
+ H 0 0 2 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ I 0 0 0 0 0 0 0 5 0 0 0 0 0 2 0 0 0 0 0 0 0 0 0 0 0
+ J 0 0 0 0 0 0 0 0 0 0 0 0 0 0 4 0 0 0 0 0 0 0 0 0 0
+ K 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 2 0 0 0 0 0 0 0 0 0
+ L 0 0 0 0 0 0 4 0 0 0 5 0 0 0 0 0 3 0 0 0 0 0 0 0 0
+ M 0 0 0 0 0 0 0 2 0 0 0 1 0 0 0 0 0 5 0 0 0 0 0 0 0
+ N 0 0 0 0 0 0 0 0 0 0 0 0 3 0 4 0 0 0 4 0 0 0 0 0 0
+ O 0 0 0 0 0 0 0 0 0 0 0 0 0 5 0 0 0 0 0 4 0 0 0 0 0
+ P 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 4 0 0 0 3 0 0 0 0
+ Q 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 3 0 0 0 0 0 0 0
+ R 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 3 0 0 0 1 0 0
+ S 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 5 0 0 0 5 0
+ T 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 5
+ U 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0
+ V 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 3 0 0 0 0 0 2 0 0
+ W 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ X 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 2 0 4
  Y 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
     </t>
   </si>
   <si>
-    <t>A -&gt; F -&gt; G -&gt; B -&gt; C -&gt; D -&gt; E -&gt; J -&gt; O -&gt; T -&gt; Y</t>
-  </si>
-  <si>
-    <t>Based on the given adjacency matrix, we can determine the least cost path from node A to node Y by applying Dijkstra's algorithm.
-Starting at node A, we initialize a set of unvisited nodes and set the distance from A to itself as 0. We then assign a tentative distance of infinity to all other nodes.
-We iterate through the unvisited nodes, selecting the node with the smallest tentative distance. In each iteration, we update the tentative distance for all unvisited neighbors of the selected node.
-Here is the step-by-step illustration of the algorithm to find the least cost path from node A to node Y:
-Step 1: Initialize the distance vector and set of unvisited nodes.
-- Distance: [0, ∞, ∞, ∞, ∞, ∞, ∞, ∞, ∞, ∞, ∞, ∞, ∞, ∞, ∞, ∞, ∞, ∞, ∞, ∞, ∞, ∞, ∞, ∞, ∞]
-- Unvisited nodes: [A, B, C, D, E, F, G, H, I, J, K, L, M, N, O, P, Q, R, S, T, U, V, W, X, Y]
-Step 2: Select the node with the smallest tentative distance (A).
-- Node A: Distance = 0, Set current node A as the visited.
-Step 3: Update the tentative distances for the unvisited neighbors of the current node (A).
-- Node B: Tentative distance = min(0 + 1, ∞) = 1
-- Node G: Tentative distance = min(0 + 2, ∞) = 2
-Step 4: Repeatedly select the node with the smallest tentative distance from the unvisited nodes.
-- Node B: Distance = 1, Set current node B as visited.
-- Update tentative distances for unvisited neighbors of B.
-  - Node C: Tentative distance = min(1 + 5, ∞) = 5
-Step 5: Continue the process until reaching the destination node Y.
-- Node C: Distance = 5, Set current node C as visited.
-- Update tentative distances for unvisited neighbors of C.
-  - Node D: Tentative distance = min(5 + 4, ∞) = 9
-  - Node H: Tentative distance = min(5 + 1, ∞) = 6
-- Node H: Distance = 6, Set current node H as visited.
-- Update tentative distances for unvisited neighbors of H.
-  - Node I: Tentative distance = min(6 + 3, ∞) = 9
-  - Node O: Tentative distance = min(6 + 2, ∞) = 8
-- Node O: Distance = 8, Set current node O as visited.
-- Update tentative distances for unvisited neighbors of O.
-  - Node T: Tentative distance = min(8 + 1, ∞) = 9
-- Node T: Distance = 9, Set current node T as visited.
-- Update tentative distances for unvisited neighbors of T.
-  - Node Y: Tentative distance = min(9 + 3, ∞) = 12
-Step 6: Reconstruct the least cost path from A to Y.
-- Start at the destination node Y.
-- Move to the previous node with the smallest tentative distance until reaching the source node A.
-  - Y -&gt; T -&gt; O -&gt; H -&gt; G -&gt; B -&gt; A
-Therefore, the least cost path from node A to node Y is A -&gt; B -&gt; G -&gt; H -&gt; O -&gt; T -&gt; Y, with a total cost of 12.</t>
-  </si>
-  <si>
-    <t>Output: 3/26</t>
+    <t>A -&gt; F -&gt; K -&gt; L -&gt; Q -&gt; R -&gt; S -&gt; X -&gt; Y</t>
+  </si>
+  <si>
+    <t>The least cost path from node A to node Y is A -&gt; B -&gt; G -&gt; H -&gt; J -&gt; O -&gt; T -&gt; Y.</t>
+  </si>
+  <si>
+    <t>1/9</t>
   </si>
 </sst>
 </file>
